--- a/StructureDefinition-force-form-order.xlsx
+++ b/StructureDefinition-force-form-order.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/force-form-order</t>
+    <t>http://science37.com/fhir/StructureDefinition/force-form-order</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
